--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_210.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_210.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,614 +488,660 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_181</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_34</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1040372670807453</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['D#:maj', 'D#:7', 'G#:maj'], ['A#:maj', 'D#:7/C#', 'G#:maj/C']]</t>
-        </is>
+          <t>isophonics_82</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_175</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.06524822695035461</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['Eb', 'Eb:7/b7', 'Ab'], ['Bb', 'Eb:7', 'Ab']]</t>
+          <t>[['A', 'F#:min', 'C#:min'], ['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(17.98, 26.32), (61.42, 65.28)]</t>
+          <t>[['C/7', 'A:min', 'E:min/b3'], ['C', 'F', 'C']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(7.604557, 14.675034), (23.428956, 30.731632)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+          <t>[('0:00:16.371208', '0:00:21.333900'), ('0:00:03.988594', '0:00:07.754783')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:37.982607', '0:00:42.115759'), ('0:01:43.520929', '0:01:48.664149')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:5EzvwjFwdP5Kfl5AZAemzu</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>jaah_3</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_59</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.287037037037037</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['Bb:7', 'Eb', 'Eb', 'Bb:7']]</t>
-        </is>
+          <t>jaah_56</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>jaah_12</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.04240440410653176</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['B:7/A', 'E:maj/G#', 'E:maj/B', 'B:7']]</t>
+          <t>[['Bb:min7', 'Eb:7', 'Ab:7']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(31.89, 35.47)]</t>
+          <t>[['G:min7', 'C:7', 'F:7']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(237.58, 249.08)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:00:21.900000', '0:00:24.630000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:17.890000', '0:00:21.530000')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_211</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_241</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.194331983805668</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['A:maj', 'D:min', 'A#:maj']]</t>
-        </is>
+          <t>isophonics_294</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_6</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.15</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['G', 'C:min', 'Ab']]</t>
+          <t>[['G', 'C', 'G/3'], ['G/3', 'G', 'C']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(5.36, 9.2)]</t>
+          <t>[['D', 'G', 'D'], ['D', 'D', 'G/5']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(54.639, 59.554)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>[('0:00:22.020589', '0:00:24.598004'), ('0:00:05.894331', '0:00:09.748843')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:00.279000', '0:00:16.531000'), ('0:00:35.013000', '0:00:40.766000')]</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_34</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1202898550724638</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'C#:7', 'F#:min', 'F#:min'], ['F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
-        </is>
+          <t>jaah_52</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_65</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1365853658536585</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G:7', 'C:min', 'C:min'], ['C', 'C/G', 'G:7', 'C']]</t>
+          <t>[['F', 'Bb', 'F']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(3.82, 8.62), (21.02, 24.16)]</t>
+          <t>[['D#:maj', 'G#:maj', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(21.94, 27.52), (242.22, 246.98)]</t>
+          <t>[('0:01:02.530000', '0:01:06.230000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:02:07.600000', '0:02:12.400000')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_57</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_87</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.07435740514075886</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G', 'C'], ['G', 'G', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_13</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_72</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1666666666666667</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['E:7', 'A', 'D'], ['A', 'A', 'D']]</t>
+          <t>[['B:maj', 'F#:maj', 'B:maj', 'E:7']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(57.401473, 60.907686), (9.231677, 12.668231)]</t>
+          <t>[['D', 'A', 'D', 'G:7']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(66.427052, 71.593492), (59.508331, 64.685555)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[('0:00:14.380000', '0:00:19.240000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:32.074829', '0:00:39.540045')]</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:5dpRJkvY8oWMQmQbEQTXhO</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_172</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2259615384615385</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:maj', 'B:min']]</t>
-        </is>
+          <t>isophonics_96</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_134</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.425</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['E:min', 'B:maj', 'E:min']]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(13.48, 20.96)]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(80.22, 87.22)]</t>
+          <t>[('0:00:11.384000', '0:00:18.318000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:02:22.140000', '0:02:26.800000')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>jaah_25</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_48</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1054766734279919</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['Bb', 'Bb', 'Bb']]</t>
-        </is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_186</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.475</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['A', 'A', 'A']]</t>
+          <t>[['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(31.37, 36.95)]</t>
+          <t>[['F:maj', 'A#:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(88.58347, 93.575761)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[('0:00:00.344657', '0:00:11.337709')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:01:58.440000', '0:02:01.680000')]</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>jaah_3</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_181</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.0992063492063492</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['Bb:7', 'Eb', 'Eb']]</t>
-        </is>
+          <t>schubert-winterreise_72</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_148</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3819444444444445</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['A#:7', 'D#:maj', 'D#:maj']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(31.89, 34.57)]</t>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(65.78, 74.48)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>[('0:00:00.380000', '0:00:08.900000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:00:08.080000', '0:00:24.940000')]</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_95</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_257</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1018099547511312</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'B', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_84</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_189</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3809523809523809</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['F#:min', 'B', 'E']]</t>
+          <t>[['G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(43.926916, 52.959478)]</t>
+          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(12.405827, 17.850907)]</t>
+          <t>[('0:01:03.100000', '0:01:10.340000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:1H7gMYGykdtwZOV6s1N0by</t>
+          <t>[('0:00:57.500000', '0:00:59.680000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_213</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>jaah_80</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1318181818181818</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['E', 'E:7', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_56</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_73</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['F', 'F:7', 'Bb']]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(16.192174, 27.488682)]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(1.64, 5.11)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>[('0:00:21.880000', '0:00:24.860000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:01:01.440000', '0:01:04.220000')]</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_130</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>jaah_7</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1970541401273885</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['B:7/A', 'E:maj/G#', 'E:maj/B'], ['F#:7/A#', 'B:7/A', 'E:maj/G#']]</t>
-        </is>
+          <t>schubert-winterreise_133</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_27</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb', 'Eb'], ['F:7', 'Bb:7', 'Eb']]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(215.66, 222.96), (52.58, 59.02)]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(8.94, 11.88), (27.25, 29.62)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[('0:01:00.680000', '0:01:06.800000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:01:01.540000', '0:01:07.900000')]</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_34</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_70</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1973244147157191</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['Eb/3', 'F:min', 'Bb', 'Eb/5']]</t>
-        </is>
+          <t>schubert-winterreise_189</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_28</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.3506493506493507</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['C', 'D:min', 'G', 'C']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(90.581065, 95.910045)]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(78.91, 85.176)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>[('0:00:58.320000', '0:00:59.680000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:15.300000', '0:00:17.780000')]</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_151</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_146</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.4833333333333333</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['C:maj/G', 'F:maj', 'C:maj/G', 'F:maj/A']]</t>
-        </is>
+          <t>schubert-winterreise_143</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_146</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A', 'D']]</t>
+          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(117.54, 122.7)]</t>
+          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(5.91585, 17.734807)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
+          <t>[('0:00:01.660000', '0:01:37')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:00.280000', '0:01:43.400000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_106</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1405405405405405</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['C:min', 'G:7', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_72</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_155</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(1.129708, 6.12526)]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(39.84, 47.28)]</t>
+          <t>[('0:00:00.380000', '0:00:31.160000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:00:01.460000', '0:00:39.820000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_133</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_151</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.5142857142857142</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
-        </is>
+          <t>isophonics_111</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_59</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7556818181818181</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'F:maj', 'C:maj/G']]</t>
+          <t>[['C', 'G:7', 'C', 'G:7', 'C', 'G:7', 'C']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(61.6, 63.84)]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(117.54, 121.8)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>[('0:01:10.519024', '0:01:22.732721')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:25.180000', '0:00:55.620000')]</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>isophonics_157</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_172</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.4166666666666666</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['E', 'A', 'E', 'B']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(2.612267, 20.410362)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(52.74, 64.44)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
